--- a/8. 资源组长工作框架/2. 资源管理/2. 梯队建设/应届生成长分析（平台组态）.xlsx
+++ b/8. 资源组长工作框架/2. 资源管理/2. 梯队建设/应届生成长分析（平台组态）.xlsx
@@ -187,14 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主观原因：
-1. 缺乏对业务、技能精益求精的动力
-客观原因：
-1. 毕业不久，开发技能和业务技能薄弱
-2. 负责每日构建、安装盘的维护，此事项比较占用时间，影响开发和业务的提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能方向：
 1.QT编码能力欠缺
 2.C++基础及软件开发技能不熟练
@@ -208,21 +200,6 @@
 2.C++基础及软件开发技能不熟练
 业务方向：
 1. 算法库模块业务能力掌握欠缺，无法独立完成功能开发。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主观原因：
-1. 缺乏对业务、技能精益求精的动力
-客观原因：
-1. 毕业不久，开发技能和业务技能薄弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主观原因：
-1. 缺乏对业务、技能精益求精的动力
-客观原因：
-1. 毕业不久，开发技能和业务技能薄弱
-2. 负责算法库验证，开发任务少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,6 +270,32 @@
 1.了解所负责的模块设计
 2.独立负责子模块功能开发。
 3.主要参与多模块功能开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观原因：
+1. 缺乏对业务、技能精益求精的动力
+2. 项目紧张，学习时间不足
+客观原因：
+1. 毕业不久，开发技能和业务技能薄弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观原因：
+1. 缺乏对业务、技能精益求精的动力
+2. 项目紧张，学习时间不足
+客观原因：
+1. 毕业不久，开发技能和业务技能薄弱
+2. 负责算法库验证，开发任务少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观原因：
+1. 缺乏对业务、技能精益求精的动力
+2. 项目紧张，学习时间不足
+客观原因：
+1. 毕业不久，开发技能和业务技能薄弱
+2. 负责每日构建、安装盘的维护，此事项比较占用时间，影响开发和业务的提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -762,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -774,13 +777,13 @@
         <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="231" x14ac:dyDescent="0.2">
@@ -806,16 +809,16 @@
         <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="181.5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="198" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -829,22 +832,22 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="181.5" x14ac:dyDescent="0.2">
@@ -864,19 +867,19 @@
         <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="181.5" x14ac:dyDescent="0.2">
@@ -893,22 +896,22 @@
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
